--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ActivityDefiniti" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Activity Definit" r:id="rId4" sheetId="2"/>
     <sheet name="Include ValueSets" r:id="rId5" sheetId="3"/>
     <sheet name="Include from SNOMED CT" r:id="rId6" sheetId="4"/>
     <sheet name="Include from Sundhedsvæsenets" r:id="rId7" sheetId="5"/>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>http://ehealth.sundhed.dk/vs/observation-codes</t>
+  </si>
+  <si>
+    <t>http://ehealth.sundhed.dk/vs/media-codes</t>
   </si>
   <si>
     <t>Concept</t>
@@ -475,7 +478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +496,11 @@
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +522,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -522,34 +530,34 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -565,7 +573,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +595,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -595,18 +603,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
+++ b/fhir/ValueSet-ehealth-activitydefinition-code.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
